--- a/C core class 1v1/hoa.xlsx
+++ b/C core class 1v1/hoa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\C core class 1v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F65639D-D74D-4986-ABC1-DEF565391D5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31931A8E-AEF8-4735-93B3-CA692596367D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8F7762F8-44BF-4E2F-ACFD-E2544870C6DB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>30k</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>17/02/2020</t>
+  </si>
+  <si>
+    <t>19/02/2020</t>
+  </si>
+  <si>
+    <t>21/02/2020</t>
   </si>
 </sst>
 </file>
@@ -398,15 +404,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587C6A3E-D62F-4FB3-85E5-8E0C218CE454}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -457,6 +464,22 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
